--- a/project-service-python/static/upload/学生导入.xlsx
+++ b/project-service-python/static/upload/学生导入.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\github\curriculum-design-2020\project-service-python\static\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A7FC0-C1C7-4B66-932D-E99485E7222A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F59C13-9524-4D17-8EBA-056A36BAB0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="18255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>201835020805</t>
   </si>
   <si>
-    <t>20183502080</t>
-  </si>
-  <si>
     <t>201835020806</t>
   </si>
   <si>
@@ -130,18 +127,29 @@
   </si>
   <si>
     <t>保险</t>
+  </si>
+  <si>
+    <t>201835020875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -451,20 +459,20 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,207 +492,208 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
